--- a/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/Exportar/1.1.EEE_secadoras_exp.xlsx
+++ b/back-end/Web Dinamico 2/MRVMinem/bin/Documentos/Exportar/1.1.EEE_secadoras_exp.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JK\Desktop\EXCEL EXPORTAR LISTOS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pc\Desktop\git-res\back-end\Web Dinamico 2\MRVMinem\Documentos\Exportar\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B369D84B-13B5-478F-9C2A-7DBFD17FC4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18075" windowHeight="6885" activeTab="2"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15000" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="3" r:id="rId1"/>
     <sheet name="Proveedores" sheetId="2" r:id="rId2"/>
-    <sheet name="EEE Secadoras" sheetId="8" r:id="rId3"/>
-    <sheet name="Variables" sheetId="4" r:id="rId4"/>
-    <sheet name="Factores" sheetId="5" r:id="rId5"/>
+    <sheet name="Variables" sheetId="4" r:id="rId3"/>
+    <sheet name="Factores" sheetId="5" r:id="rId4"/>
+    <sheet name="EEE Secadoras" sheetId="8" r:id="rId5"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId6"/>
@@ -35,22 +36,28 @@
     <definedName name="Lista_meses">Variables!$S$87:$S$98</definedName>
     <definedName name="Tabla_mes">Variables!$S$87:$T$98</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000001000000}">
       <text>
         <r>
           <rPr>
@@ -63,7 +70,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0" shapeId="0">
+    <comment ref="M11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000002000000}">
       <text>
         <r>
           <rPr>
@@ -76,7 +83,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H181" authorId="0" shapeId="0">
+    <comment ref="H181" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000003000000}">
       <text>
         <r>
           <rPr>
@@ -89,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E221" authorId="0" shapeId="0">
+    <comment ref="E221" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0300-000004000000}">
       <text>
         <r>
           <rPr>
@@ -107,12 +114,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>MRV</author>
   </authors>
   <commentList>
-    <comment ref="D8" authorId="0" shapeId="0">
+    <comment ref="D8" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0400-000001000000}">
       <text>
         <r>
           <rPr>
@@ -2443,16 +2450,16 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="164" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="165" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="168" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="165" formatCode="_ * #,##0.0_ ;_ * \-#,##0.0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="166" formatCode="0.0%"/>
+    <numFmt numFmtId="167" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.000000_ ;_ * \-#,##0.000000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
+    <numFmt numFmtId="170" formatCode="0.0"/>
+    <numFmt numFmtId="171" formatCode="_ * #,##0.0000_ ;_ * \-#,##0.0000_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="47" x14ac:knownFonts="1">
     <font>
@@ -3728,12 +3735,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="399">
+  <cellXfs count="402">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -3859,21 +3866,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="16" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3881,8 +3888,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3891,10 +3898,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="168" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="17" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3994,12 +4001,12 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4016,7 +4023,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4042,9 +4049,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4067,7 +4074,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="2" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4157,7 +4164,7 @@
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4169,61 +4176,61 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="55" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="34" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="12" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="34" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="19" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="19" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="19" borderId="57" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -4231,20 +4238,20 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="41" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="3" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="19" borderId="19" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="4" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="4" fillId="19" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="19" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -4277,7 +4284,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4290,10 +4297,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="43" fontId="0" fillId="19" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="55" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="53" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="59" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="19" borderId="54" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4312,11 +4319,11 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="12" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="24" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="12" fillId="19" borderId="34" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="24" fillId="19" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4571,7 +4578,7 @@
     <xf numFmtId="3" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="21" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4649,6 +4656,57 @@
     <xf numFmtId="0" fontId="43" fillId="21" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4667,21 +4725,6 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -4691,54 +4734,21 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="51" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="171" fontId="12" fillId="19" borderId="21" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="19" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="171" fontId="12" fillId="19" borderId="12" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Hipervínculo" xfId="3" builtinId="8"/>
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10 3" xfId="4"/>
+    <cellStyle name="Normal 10 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -4763,7 +4773,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -4802,7 +4812,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4919,6 +4929,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0382-4742-B239-9BAC8C0FBCCD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4974,7 +4989,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="164026848"/>
@@ -5033,7 +5048,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="164032448"/>
@@ -5074,7 +5089,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5086,7 +5101,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5125,7 +5140,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5242,6 +5257,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-69B4-41CA-B687-9CEE1A47DD2C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5297,7 +5317,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165873808"/>
@@ -5356,7 +5376,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165869888"/>
@@ -5397,7 +5417,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5409,7 +5429,7 @@
 </file>
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5448,7 +5468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5565,6 +5585,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C389-4A0B-B20D-A0890CF6383C}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5620,7 +5645,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165874928"/>
@@ -5679,7 +5704,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="165869328"/>
@@ -5720,7 +5745,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5732,7 +5757,7 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -5771,7 +5796,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5888,6 +5913,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-40B1-4686-B03C-28F6E1CB7C4E}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -5943,7 +5973,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="292243648"/>
@@ -6002,7 +6032,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="292241408"/>
@@ -6043,7 +6073,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6055,7 +6085,7 @@
 </file>
 
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6094,7 +6124,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6211,6 +6241,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-52A7-4C06-9B9B-510DBEC154BD}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6266,7 +6301,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="308699984"/>
@@ -6325,7 +6360,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="292237488"/>
@@ -6366,7 +6401,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6378,7 +6413,7 @@
 </file>
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6417,7 +6452,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6534,6 +6569,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-53CD-4079-BBA5-F1EEC0CFEE64}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6589,7 +6629,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="308702224"/>
@@ -6648,7 +6688,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="308701104"/>
@@ -6689,7 +6729,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6701,7 +6741,7 @@
 </file>
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
@@ -6740,7 +6780,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-MX"/>
+          <a:endParaRPr lang="es-PE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6857,6 +6897,11 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BE6E-4041-8A96-5B996994BDEE}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -6912,7 +6957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296967792"/>
@@ -6971,7 +7016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="es-MX"/>
+            <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="296966672"/>
@@ -7012,7 +7057,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="es-MX"/>
+      <a:endParaRPr lang="es-PE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10836,7 +10881,13 @@
     <xdr:ext cx="3945701" cy="381985"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="CuadroTexto 1"/>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -10935,7 +10986,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="CuadroTexto 2"/>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11025,7 +11082,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Rectángulo 3"/>
+        <xdr:cNvPr id="4" name="Rectángulo 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -11090,7 +11153,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -11120,7 +11189,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11152,7 +11227,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11184,7 +11265,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11216,7 +11303,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5"/>
+        <xdr:cNvPr id="6" name="Gráfico 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11248,7 +11341,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Gráfico 6"/>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -11280,7 +11379,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
           <a:graphicFrameLocks/>
         </xdr:cNvGraphicFramePr>
@@ -12200,8 +12305,8 @@
     </sheetNames>
     <sheetDataSet>
       <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1">
         <row r="4">
           <cell r="D4">
             <v>21.566399999999998</v>
@@ -12759,7 +12864,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:G45"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -13060,7 +13165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:S17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -13389,217 +13494,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" customWidth="1"/>
-    <col min="7" max="7" width="14" hidden="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B1" s="320" t="s">
-        <v>260</v>
-      </c>
-      <c r="C1" s="320"/>
-      <c r="D1" s="320"/>
-      <c r="E1" s="320"/>
-      <c r="F1" s="321"/>
-      <c r="G1" s="321"/>
-      <c r="H1" s="321"/>
-      <c r="I1" s="320"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="322" t="s">
-        <v>280</v>
-      </c>
-      <c r="C2" s="320"/>
-      <c r="D2" s="320"/>
-      <c r="E2" s="320"/>
-      <c r="F2" s="321"/>
-      <c r="G2" s="321"/>
-      <c r="H2" s="321"/>
-      <c r="I2" s="320"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="320"/>
-      <c r="C3" s="320"/>
-      <c r="D3" s="320"/>
-      <c r="E3" s="320"/>
-      <c r="F3" s="321"/>
-      <c r="G3" s="321"/>
-      <c r="H3" s="321"/>
-      <c r="I3" s="320"/>
-    </row>
-    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="323" t="s">
-        <v>261</v>
-      </c>
-      <c r="C4" s="324"/>
-      <c r="D4" s="325"/>
-      <c r="E4" s="324"/>
-      <c r="F4" s="326"/>
-      <c r="G4" s="327"/>
-      <c r="H4" s="327"/>
-      <c r="I4" s="370" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="B5" s="328" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="328" t="s">
-        <v>281</v>
-      </c>
-      <c r="D5" s="329" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" s="328" t="s">
-        <v>264</v>
-      </c>
-      <c r="F5" s="330" t="s">
-        <v>94</v>
-      </c>
-      <c r="G5" s="331"/>
-      <c r="H5" s="332" t="s">
-        <v>265</v>
-      </c>
-      <c r="I5" s="370"/>
-    </row>
-    <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.25">
-      <c r="B6" s="333" t="s">
-        <v>266</v>
-      </c>
-      <c r="C6" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="D6" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="E6" s="72" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" s="72" t="s">
-        <v>96</v>
-      </c>
-      <c r="G6" s="334"/>
-      <c r="H6" s="335"/>
-      <c r="I6" s="336" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="337">
-        <v>2013</v>
-      </c>
-      <c r="C7" s="337" t="s">
-        <v>252</v>
-      </c>
-      <c r="D7" s="337" t="s">
-        <v>88</v>
-      </c>
-      <c r="E7" s="337" t="s">
-        <v>78</v>
-      </c>
-      <c r="F7" s="338">
-        <v>10000</v>
-      </c>
-      <c r="G7" s="80">
-        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
-        <v>4</v>
-      </c>
-      <c r="H7" s="339" t="s">
-        <v>275</v>
-      </c>
-      <c r="I7" s="340">
-        <f>((Variables!F160-Factores!F122)/(1-Factores!$C$7)*1/1000*Factores!$Q$7*F7)*4/12</f>
-        <v>168.64954788627014</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="337">
-        <v>2014</v>
-      </c>
-      <c r="C8" s="337" t="s">
-        <v>253</v>
-      </c>
-      <c r="D8" s="337" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="337" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="338">
-        <v>10000</v>
-      </c>
-      <c r="G8" s="80">
-        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
-        <v>8</v>
-      </c>
-      <c r="H8" s="339" t="s">
-        <v>272</v>
-      </c>
-      <c r="I8" s="340">
-        <f>((Variables!F168-Variables!F163)/(1-Factores!$C$8)*1/1000*Factores!$Q$8*F8)*G8/12</f>
-        <v>264.56707086614176</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="341"/>
-      <c r="D9" s="342"/>
-      <c r="E9" s="343"/>
-      <c r="F9" s="344"/>
-      <c r="G9" s="344"/>
-      <c r="H9" s="344"/>
-      <c r="I9" s="345">
-        <f>SUM(I7:I8)</f>
-        <v>433.21661875241193</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="I4:I5"/>
-  </mergeCells>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8">
-      <formula1>Lista_meses</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Variables!$F$12:$F$18</xm:f>
-          </x14:formula1>
-          <xm:sqref>D7:E8</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Variables!$H$155:$J$155</xm:f>
-          </x14:formula1>
-          <xm:sqref>C7:C8</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:AY305"/>
   <sheetViews>
-    <sheetView topLeftCell="A134" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R92" sqref="R92"/>
+    <sheetView topLeftCell="A143" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F164" sqref="F164"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13764,18 +13663,18 @@
       <c r="D3" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="E3" s="387" t="s">
+      <c r="E3" s="384" t="s">
         <v>139</v>
       </c>
-      <c r="F3" s="387"/>
-      <c r="G3" s="387"/>
-      <c r="H3" s="387"/>
-      <c r="I3" s="387"/>
-      <c r="J3" s="387"/>
-      <c r="K3" s="387"/>
-      <c r="L3" s="387"/>
-      <c r="M3" s="387"/>
-      <c r="N3" s="387"/>
+      <c r="F3" s="384"/>
+      <c r="G3" s="384"/>
+      <c r="H3" s="384"/>
+      <c r="I3" s="384"/>
+      <c r="J3" s="384"/>
+      <c r="K3" s="384"/>
+      <c r="L3" s="384"/>
+      <c r="M3" s="384"/>
+      <c r="N3" s="384"/>
       <c r="P3" s="306" t="s">
         <v>145</v>
       </c>
@@ -17471,20 +17370,20 @@
       </c>
     </row>
     <row r="40" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="388" t="s">
+      <c r="D40" s="385" t="s">
         <v>92</v>
       </c>
-      <c r="E40" s="388"/>
-      <c r="F40" s="388"/>
-      <c r="G40" s="388"/>
+      <c r="E40" s="385"/>
+      <c r="F40" s="385"/>
+      <c r="G40" s="385"/>
       <c r="H40" s="222"/>
       <c r="I40" s="222"/>
-      <c r="J40" s="388" t="s">
+      <c r="J40" s="385" t="s">
         <v>167</v>
       </c>
-      <c r="K40" s="388"/>
-      <c r="L40" s="388"/>
-      <c r="M40" s="388"/>
+      <c r="K40" s="385"/>
+      <c r="L40" s="385"/>
+      <c r="M40" s="385"/>
       <c r="N40" s="222"/>
       <c r="O40" s="222"/>
       <c r="P40" s="313" t="s">
@@ -17495,13 +17394,13 @@
       <c r="S40" s="225"/>
       <c r="T40" s="224"/>
       <c r="U40" s="224"/>
-      <c r="V40" s="395" t="s">
+      <c r="V40" s="373" t="s">
         <v>171</v>
       </c>
-      <c r="W40" s="395"/>
-      <c r="X40" s="395"/>
-      <c r="Y40" s="395"/>
-      <c r="Z40" s="395"/>
+      <c r="W40" s="373"/>
+      <c r="X40" s="373"/>
+      <c r="Y40" s="373"/>
+      <c r="Z40" s="373"/>
       <c r="AA40" s="224"/>
       <c r="AB40" s="226" t="s">
         <v>174</v>
@@ -17509,19 +17408,19 @@
       <c r="AC40" s="224"/>
       <c r="AD40" s="224"/>
       <c r="AG40" s="224"/>
-      <c r="AH40" s="392" t="s">
+      <c r="AH40" s="374" t="s">
         <v>175</v>
       </c>
-      <c r="AI40" s="392"/>
-      <c r="AJ40" s="392"/>
-      <c r="AK40" s="392"/>
-      <c r="AN40" s="395" t="s">
+      <c r="AI40" s="374"/>
+      <c r="AJ40" s="374"/>
+      <c r="AK40" s="374"/>
+      <c r="AN40" s="373" t="s">
         <v>177</v>
       </c>
-      <c r="AO40" s="395"/>
-      <c r="AP40" s="395"/>
-      <c r="AQ40" s="395"/>
-      <c r="AR40" s="395"/>
+      <c r="AO40" s="373"/>
+      <c r="AP40" s="373"/>
+      <c r="AQ40" s="373"/>
+      <c r="AR40" s="373"/>
       <c r="AU40" s="224"/>
       <c r="AV40" s="224"/>
       <c r="AW40" s="224"/>
@@ -17529,58 +17428,58 @@
       <c r="AY40" s="224"/>
     </row>
     <row r="41" spans="2:51" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D41" s="389" t="s">
+      <c r="D41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="E41" s="389"/>
-      <c r="F41" s="389"/>
-      <c r="G41" s="389"/>
+      <c r="E41" s="372"/>
+      <c r="F41" s="372"/>
+      <c r="G41" s="372"/>
       <c r="H41" s="223"/>
       <c r="I41" s="223"/>
-      <c r="J41" s="389" t="s">
+      <c r="J41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="K41" s="389"/>
-      <c r="L41" s="389"/>
-      <c r="M41" s="389"/>
+      <c r="K41" s="372"/>
+      <c r="L41" s="372"/>
+      <c r="M41" s="372"/>
       <c r="N41" s="223"/>
       <c r="O41" s="223"/>
-      <c r="P41" s="389" t="s">
+      <c r="P41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="Q41" s="389"/>
-      <c r="R41" s="389"/>
-      <c r="S41" s="389"/>
+      <c r="Q41" s="372"/>
+      <c r="R41" s="372"/>
+      <c r="S41" s="372"/>
       <c r="T41" s="223"/>
       <c r="U41" s="223"/>
-      <c r="V41" s="389" t="s">
+      <c r="V41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="W41" s="389"/>
-      <c r="X41" s="389"/>
-      <c r="Y41" s="389"/>
-      <c r="Z41" s="389"/>
+      <c r="W41" s="372"/>
+      <c r="X41" s="372"/>
+      <c r="Y41" s="372"/>
+      <c r="Z41" s="372"/>
       <c r="AA41" s="223"/>
-      <c r="AB41" s="389" t="s">
+      <c r="AB41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="AC41" s="389"/>
-      <c r="AD41" s="389"/>
-      <c r="AE41" s="389"/>
+      <c r="AC41" s="372"/>
+      <c r="AD41" s="372"/>
+      <c r="AE41" s="372"/>
       <c r="AG41" s="223"/>
-      <c r="AH41" s="389" t="s">
+      <c r="AH41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="AI41" s="389"/>
-      <c r="AJ41" s="389"/>
-      <c r="AK41" s="389"/>
-      <c r="AN41" s="389" t="s">
+      <c r="AI41" s="372"/>
+      <c r="AJ41" s="372"/>
+      <c r="AK41" s="372"/>
+      <c r="AN41" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="AO41" s="389"/>
-      <c r="AP41" s="389"/>
-      <c r="AQ41" s="389"/>
-      <c r="AR41" s="389"/>
+      <c r="AO41" s="372"/>
+      <c r="AP41" s="372"/>
+      <c r="AQ41" s="372"/>
+      <c r="AR41" s="372"/>
       <c r="AU41" s="223"/>
       <c r="AV41" s="223"/>
       <c r="AW41" s="223"/>
@@ -17588,46 +17487,46 @@
       <c r="AY41" s="223"/>
     </row>
     <row r="42" spans="2:51" x14ac:dyDescent="0.25">
-      <c r="D42" s="389"/>
-      <c r="E42" s="389"/>
-      <c r="F42" s="389"/>
-      <c r="G42" s="389"/>
+      <c r="D42" s="372"/>
+      <c r="E42" s="372"/>
+      <c r="F42" s="372"/>
+      <c r="G42" s="372"/>
       <c r="H42" s="223"/>
       <c r="I42" s="223"/>
-      <c r="J42" s="389"/>
-      <c r="K42" s="389"/>
-      <c r="L42" s="389"/>
-      <c r="M42" s="389"/>
+      <c r="J42" s="372"/>
+      <c r="K42" s="372"/>
+      <c r="L42" s="372"/>
+      <c r="M42" s="372"/>
       <c r="N42" s="223"/>
       <c r="O42" s="223"/>
-      <c r="P42" s="389"/>
-      <c r="Q42" s="389"/>
-      <c r="R42" s="389"/>
-      <c r="S42" s="389"/>
+      <c r="P42" s="372"/>
+      <c r="Q42" s="372"/>
+      <c r="R42" s="372"/>
+      <c r="S42" s="372"/>
       <c r="T42" s="223"/>
       <c r="U42" s="223"/>
-      <c r="V42" s="389"/>
-      <c r="W42" s="389"/>
-      <c r="X42" s="389"/>
-      <c r="Y42" s="389"/>
-      <c r="Z42" s="389"/>
+      <c r="V42" s="372"/>
+      <c r="W42" s="372"/>
+      <c r="X42" s="372"/>
+      <c r="Y42" s="372"/>
+      <c r="Z42" s="372"/>
       <c r="AA42" s="223"/>
-      <c r="AB42" s="389"/>
-      <c r="AC42" s="389"/>
-      <c r="AD42" s="389"/>
-      <c r="AE42" s="389"/>
+      <c r="AB42" s="372"/>
+      <c r="AC42" s="372"/>
+      <c r="AD42" s="372"/>
+      <c r="AE42" s="372"/>
       <c r="AF42" s="223"/>
       <c r="AG42" s="223"/>
-      <c r="AH42" s="389"/>
-      <c r="AI42" s="389"/>
-      <c r="AJ42" s="389"/>
-      <c r="AK42" s="389"/>
+      <c r="AH42" s="372"/>
+      <c r="AI42" s="372"/>
+      <c r="AJ42" s="372"/>
+      <c r="AK42" s="372"/>
       <c r="AM42" s="223"/>
-      <c r="AN42" s="389"/>
-      <c r="AO42" s="389"/>
-      <c r="AP42" s="389"/>
-      <c r="AQ42" s="389"/>
-      <c r="AR42" s="389"/>
+      <c r="AN42" s="372"/>
+      <c r="AO42" s="372"/>
+      <c r="AP42" s="372"/>
+      <c r="AQ42" s="372"/>
+      <c r="AR42" s="372"/>
       <c r="AT42" s="223"/>
       <c r="AU42" s="223"/>
       <c r="AV42" s="223"/>
@@ -19333,44 +19232,44 @@
       </c>
     </row>
     <row r="81" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D81" s="371" t="s">
+      <c r="D81" s="388" t="s">
         <v>239</v>
       </c>
-      <c r="E81" s="371"/>
-      <c r="F81" s="371"/>
-      <c r="G81" s="371"/>
-      <c r="H81" s="371"/>
-      <c r="I81" s="371"/>
-      <c r="J81" s="371"/>
-      <c r="K81" s="371"/>
-      <c r="M81" s="392" t="s">
+      <c r="E81" s="388"/>
+      <c r="F81" s="388"/>
+      <c r="G81" s="388"/>
+      <c r="H81" s="388"/>
+      <c r="I81" s="388"/>
+      <c r="J81" s="388"/>
+      <c r="K81" s="388"/>
+      <c r="M81" s="374" t="s">
         <v>179</v>
       </c>
-      <c r="N81" s="392"/>
-      <c r="O81" s="392"/>
-      <c r="P81" s="392"/>
+      <c r="N81" s="374"/>
+      <c r="O81" s="374"/>
+      <c r="P81" s="374"/>
     </row>
     <row r="82" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D82" s="372"/>
-      <c r="E82" s="372"/>
-      <c r="F82" s="372"/>
-      <c r="G82" s="372"/>
-      <c r="H82" s="372"/>
-      <c r="I82" s="372"/>
-      <c r="J82" s="372"/>
-      <c r="K82" s="372"/>
-      <c r="M82" s="389" t="s">
+      <c r="D82" s="389"/>
+      <c r="E82" s="389"/>
+      <c r="F82" s="389"/>
+      <c r="G82" s="389"/>
+      <c r="H82" s="389"/>
+      <c r="I82" s="389"/>
+      <c r="J82" s="389"/>
+      <c r="K82" s="389"/>
+      <c r="M82" s="372" t="s">
         <v>93</v>
       </c>
-      <c r="N82" s="389"/>
-      <c r="O82" s="389"/>
-      <c r="P82" s="389"/>
+      <c r="N82" s="372"/>
+      <c r="O82" s="372"/>
+      <c r="P82" s="372"/>
     </row>
     <row r="83" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="M83" s="389"/>
-      <c r="N83" s="389"/>
-      <c r="O83" s="389"/>
-      <c r="P83" s="389"/>
+      <c r="M83" s="372"/>
+      <c r="N83" s="372"/>
+      <c r="O83" s="372"/>
+      <c r="P83" s="372"/>
     </row>
     <row r="84" spans="2:20" s="179" customFormat="1" x14ac:dyDescent="0.25">
       <c r="D84" s="180" t="s">
@@ -19784,11 +19683,11 @@
         <f>[2]CEA!$D$21</f>
         <v>600.4777107007576</v>
       </c>
-      <c r="H94" s="390" t="s">
+      <c r="H94" s="386" t="s">
         <v>239</v>
       </c>
-      <c r="I94" s="390"/>
-      <c r="J94" s="390"/>
+      <c r="I94" s="386"/>
+      <c r="J94" s="386"/>
       <c r="K94" s="298">
         <v>150</v>
       </c>
@@ -19828,9 +19727,9 @@
         <f>[2]CEA!$G$21</f>
         <v>625.34956854043412</v>
       </c>
-      <c r="H95" s="391"/>
-      <c r="I95" s="391"/>
-      <c r="J95" s="391"/>
+      <c r="H95" s="387"/>
+      <c r="I95" s="387"/>
+      <c r="J95" s="387"/>
       <c r="L95" s="75" t="s">
         <v>80</v>
       </c>
@@ -19864,9 +19763,9 @@
         <f>[2]CEA!$J$21</f>
         <v>688.94443991742742</v>
       </c>
-      <c r="H96" s="391"/>
-      <c r="I96" s="391"/>
-      <c r="J96" s="391"/>
+      <c r="H96" s="387"/>
+      <c r="I96" s="387"/>
+      <c r="J96" s="387"/>
       <c r="L96" s="75" t="s">
         <v>82</v>
       </c>
@@ -20020,12 +19919,12 @@
         <v>1801.433132102273</v>
       </c>
       <c r="K101" s="299"/>
-      <c r="L101" s="385" t="s">
+      <c r="L101" s="382" t="s">
         <v>239</v>
       </c>
-      <c r="M101" s="385"/>
-      <c r="N101" s="385"/>
-      <c r="O101" s="385"/>
+      <c r="M101" s="382"/>
+      <c r="N101" s="382"/>
+      <c r="O101" s="382"/>
       <c r="P101" s="319"/>
     </row>
     <row r="102" spans="4:20" x14ac:dyDescent="0.25">
@@ -20041,10 +19940,10 @@
         <v>1945.1057131901846</v>
       </c>
       <c r="K102" s="299"/>
-      <c r="L102" s="386"/>
-      <c r="M102" s="386"/>
-      <c r="N102" s="386"/>
-      <c r="O102" s="386"/>
+      <c r="L102" s="383"/>
+      <c r="M102" s="383"/>
+      <c r="N102" s="383"/>
+      <c r="O102" s="383"/>
       <c r="P102" s="319"/>
     </row>
     <row r="103" spans="4:20" x14ac:dyDescent="0.25">
@@ -20060,10 +19959,10 @@
         <v>2327.8431075624085</v>
       </c>
       <c r="K103" s="299"/>
-      <c r="L103" s="386"/>
-      <c r="M103" s="386"/>
-      <c r="N103" s="386"/>
-      <c r="O103" s="386"/>
+      <c r="L103" s="383"/>
+      <c r="M103" s="383"/>
+      <c r="N103" s="383"/>
+      <c r="O103" s="383"/>
       <c r="P103" s="319"/>
     </row>
     <row r="104" spans="4:20" x14ac:dyDescent="0.25">
@@ -20143,11 +20042,11 @@
       <c r="P107" s="319"/>
     </row>
     <row r="108" spans="4:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D108" s="375" t="s">
+      <c r="D108" s="392" t="s">
         <v>239</v>
       </c>
-      <c r="E108" s="375"/>
-      <c r="F108" s="375"/>
+      <c r="E108" s="392"/>
+      <c r="F108" s="392"/>
       <c r="G108" s="268"/>
       <c r="H108" s="228"/>
       <c r="K108" s="299"/>
@@ -20158,9 +20057,9 @@
       <c r="P108" s="319"/>
     </row>
     <row r="109" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D109" s="376"/>
-      <c r="E109" s="376"/>
-      <c r="F109" s="376"/>
+      <c r="D109" s="393"/>
+      <c r="E109" s="393"/>
+      <c r="F109" s="393"/>
       <c r="G109" s="268"/>
       <c r="H109" s="228"/>
       <c r="K109" s="299"/>
@@ -20171,9 +20070,9 @@
       <c r="P109" s="319"/>
     </row>
     <row r="110" spans="4:20" x14ac:dyDescent="0.25">
-      <c r="D110" s="376"/>
-      <c r="E110" s="376"/>
-      <c r="F110" s="376"/>
+      <c r="D110" s="393"/>
+      <c r="E110" s="393"/>
+      <c r="F110" s="393"/>
       <c r="K110" s="299"/>
       <c r="L110" s="139"/>
       <c r="M110" s="139"/>
@@ -20689,21 +20588,21 @@
       </c>
     </row>
     <row r="149" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D149" s="371" t="s">
+      <c r="D149" s="388" t="s">
         <v>239</v>
       </c>
-      <c r="E149" s="371"/>
-      <c r="F149" s="371"/>
+      <c r="E149" s="388"/>
+      <c r="F149" s="388"/>
     </row>
     <row r="150" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D150" s="372"/>
-      <c r="E150" s="372"/>
-      <c r="F150" s="372"/>
+      <c r="D150" s="389"/>
+      <c r="E150" s="389"/>
+      <c r="F150" s="389"/>
     </row>
     <row r="151" spans="4:16" x14ac:dyDescent="0.25">
-      <c r="D151" s="372"/>
-      <c r="E151" s="372"/>
-      <c r="F151" s="372"/>
+      <c r="D151" s="389"/>
+      <c r="E151" s="389"/>
+      <c r="F151" s="389"/>
     </row>
     <row r="153" spans="4:16" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D153" s="180" t="s">
@@ -20723,11 +20622,11 @@
       <c r="F154" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="H154" s="382" t="s">
+      <c r="H154" s="394" t="s">
         <v>251</v>
       </c>
-      <c r="I154" s="383"/>
-      <c r="J154" s="384"/>
+      <c r="I154" s="395"/>
+      <c r="J154" s="396"/>
     </row>
     <row r="155" spans="4:16" x14ac:dyDescent="0.25">
       <c r="D155" s="73" t="s">
@@ -20736,7 +20635,7 @@
       <c r="E155" s="49">
         <v>8</v>
       </c>
-      <c r="F155" s="244">
+      <c r="F155" s="400">
         <f>[3]Resumen!$D$4</f>
         <v>21.566399999999998</v>
       </c>
@@ -20819,7 +20718,7 @@
         <f t="shared" si="41"/>
         <v>8</v>
       </c>
-      <c r="F160" s="245">
+      <c r="F160" s="399">
         <f>[3]Resumen!$I$4</f>
         <v>71.886500000000012</v>
       </c>
@@ -20857,7 +20756,7 @@
         <f t="shared" ref="E163:E168" si="42">+E162</f>
         <v>10</v>
       </c>
-      <c r="F163" s="245">
+      <c r="F163" s="399">
         <f>[3]Resumen!$E$5</f>
         <v>27.635999999999999</v>
       </c>
@@ -20922,7 +20821,7 @@
         <f t="shared" si="42"/>
         <v>10</v>
       </c>
-      <c r="F168" s="246">
+      <c r="F168" s="401">
         <f>[3]Resumen!$J$5</f>
         <v>83.894999999999996</v>
       </c>
@@ -21018,21 +20917,21 @@
       </c>
     </row>
     <row r="176" spans="4:6" x14ac:dyDescent="0.25">
-      <c r="D176" s="371" t="s">
+      <c r="D176" s="388" t="s">
         <v>239</v>
       </c>
-      <c r="E176" s="371"/>
-      <c r="F176" s="371"/>
+      <c r="E176" s="388"/>
+      <c r="F176" s="388"/>
     </row>
     <row r="177" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D177" s="372"/>
-      <c r="E177" s="372"/>
-      <c r="F177" s="372"/>
+      <c r="D177" s="389"/>
+      <c r="E177" s="389"/>
+      <c r="F177" s="389"/>
     </row>
     <row r="178" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="D178" s="372"/>
-      <c r="E178" s="372"/>
-      <c r="F178" s="372"/>
+      <c r="D178" s="389"/>
+      <c r="E178" s="389"/>
+      <c r="F178" s="389"/>
     </row>
     <row r="179" spans="2:16" x14ac:dyDescent="0.25">
       <c r="D179" s="50"/>
@@ -21083,7 +20982,7 @@
       </c>
     </row>
     <row r="182" spans="2:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B182" s="396" t="s">
+      <c r="B182" s="371" t="s">
         <v>123</v>
       </c>
       <c r="D182" s="73" t="s">
@@ -21118,7 +21017,7 @@
       </c>
     </row>
     <row r="183" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B183" s="396"/>
+      <c r="B183" s="371"/>
       <c r="D183" s="75" t="s">
         <v>100</v>
       </c>
@@ -21136,7 +21035,7 @@
       </c>
     </row>
     <row r="184" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B184" s="396"/>
+      <c r="B184" s="371"/>
       <c r="D184" s="75" t="s">
         <v>100</v>
       </c>
@@ -21154,7 +21053,7 @@
       </c>
     </row>
     <row r="185" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B185" s="396"/>
+      <c r="B185" s="371"/>
       <c r="D185" s="75" t="s">
         <v>100</v>
       </c>
@@ -21177,7 +21076,7 @@
       </c>
     </row>
     <row r="186" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B186" s="396"/>
+      <c r="B186" s="371"/>
       <c r="D186" s="75" t="s">
         <v>100</v>
       </c>
@@ -21193,17 +21092,17 @@
       <c r="H186" s="182">
         <v>209.4545454545447</v>
       </c>
-      <c r="J186" s="373" t="s">
+      <c r="J186" s="390" t="s">
         <v>112</v>
       </c>
-      <c r="K186" s="374"/>
+      <c r="K186" s="391"/>
       <c r="L186" s="116">
         <f>H182*$J$182+H189*$K$182+H196*$L$182+H203*$M$182+H210*$N$182</f>
         <v>230.39999999999918</v>
       </c>
     </row>
     <row r="187" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B187" s="396"/>
+      <c r="B187" s="371"/>
       <c r="D187" s="75" t="s">
         <v>100</v>
       </c>
@@ -21219,17 +21118,17 @@
       <c r="H187" s="182">
         <v>240.71641791044686</v>
       </c>
-      <c r="J187" s="373" t="s">
+      <c r="J187" s="390" t="s">
         <v>113</v>
       </c>
-      <c r="K187" s="374"/>
+      <c r="K187" s="391"/>
       <c r="L187" s="116">
         <f t="shared" ref="L187:L192" si="44">H183*$J$182+H190*$K$182+H197*$L$182+H204*$M$182+H211*$N$182</f>
         <v>249.77943925233555</v>
       </c>
     </row>
     <row r="188" spans="2:16" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B188" s="396"/>
+      <c r="B188" s="371"/>
       <c r="D188" s="77" t="s">
         <v>100</v>
       </c>
@@ -21245,17 +21144,17 @@
       <c r="H188" s="183">
         <v>260.1290322580636</v>
       </c>
-      <c r="J188" s="373" t="s">
+      <c r="J188" s="390" t="s">
         <v>114</v>
       </c>
-      <c r="K188" s="374"/>
+      <c r="K188" s="391"/>
       <c r="L188" s="116">
         <f t="shared" si="44"/>
         <v>275.52989690721552</v>
       </c>
     </row>
     <row r="189" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B189" s="396" t="s">
+      <c r="B189" s="371" t="s">
         <v>124</v>
       </c>
       <c r="D189" s="73" t="s">
@@ -21273,17 +21172,17 @@
       <c r="H189" s="184">
         <v>198.6206896551717</v>
       </c>
-      <c r="J189" s="373" t="s">
+      <c r="J189" s="390" t="s">
         <v>129</v>
       </c>
-      <c r="K189" s="374"/>
+      <c r="K189" s="391"/>
       <c r="L189" s="116">
         <f t="shared" si="44"/>
         <v>307.19999999999891</v>
       </c>
     </row>
     <row r="190" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B190" s="396"/>
+      <c r="B190" s="371"/>
       <c r="D190" s="75" t="s">
         <v>100</v>
       </c>
@@ -21299,17 +21198,17 @@
       <c r="H190" s="182">
         <v>215.32710280373755</v>
       </c>
-      <c r="J190" s="373" t="s">
+      <c r="J190" s="390" t="s">
         <v>130</v>
       </c>
-      <c r="K190" s="374"/>
+      <c r="K190" s="391"/>
       <c r="L190" s="116">
         <f t="shared" si="44"/>
         <v>347.0961038961027</v>
       </c>
     </row>
     <row r="191" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B191" s="396"/>
+      <c r="B191" s="371"/>
       <c r="D191" s="75" t="s">
         <v>100</v>
       </c>
@@ -21325,17 +21224,17 @@
       <c r="H191" s="182">
         <v>237.52577319587542</v>
       </c>
-      <c r="J191" s="373" t="s">
+      <c r="J191" s="390" t="s">
         <v>131</v>
       </c>
-      <c r="K191" s="374"/>
+      <c r="K191" s="391"/>
       <c r="L191" s="116">
         <f t="shared" si="44"/>
         <v>398.90149253731192</v>
       </c>
     </row>
     <row r="192" spans="2:16" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B192" s="396"/>
+      <c r="B192" s="371"/>
       <c r="D192" s="75" t="s">
         <v>100</v>
       </c>
@@ -21351,17 +21250,17 @@
       <c r="H192" s="182">
         <v>264.8275862068956</v>
       </c>
-      <c r="J192" s="373" t="s">
+      <c r="J192" s="390" t="s">
         <v>132</v>
       </c>
-      <c r="K192" s="374"/>
+      <c r="K192" s="391"/>
       <c r="L192" s="116">
         <f t="shared" si="44"/>
         <v>431.07096774193394</v>
       </c>
     </row>
     <row r="193" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B193" s="396"/>
+      <c r="B193" s="371"/>
       <c r="D193" s="75" t="s">
         <v>100</v>
       </c>
@@ -21379,7 +21278,7 @@
       </c>
     </row>
     <row r="194" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B194" s="396"/>
+      <c r="B194" s="371"/>
       <c r="D194" s="75" t="s">
         <v>100</v>
       </c>
@@ -21397,7 +21296,7 @@
       </c>
     </row>
     <row r="195" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B195" s="396"/>
+      <c r="B195" s="371"/>
       <c r="D195" s="81" t="s">
         <v>100</v>
       </c>
@@ -21415,7 +21314,7 @@
       </c>
     </row>
     <row r="196" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B196" s="396" t="s">
+      <c r="B196" s="371" t="s">
         <v>125</v>
       </c>
       <c r="D196" s="83" t="s">
@@ -21435,7 +21334,7 @@
       </c>
     </row>
     <row r="197" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B197" s="396"/>
+      <c r="B197" s="371"/>
       <c r="D197" s="75" t="s">
         <v>100</v>
       </c>
@@ -21453,7 +21352,7 @@
       </c>
     </row>
     <row r="198" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B198" s="396"/>
+      <c r="B198" s="371"/>
       <c r="D198" s="75" t="s">
         <v>100</v>
       </c>
@@ -21471,7 +21370,7 @@
       </c>
     </row>
     <row r="199" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B199" s="396"/>
+      <c r="B199" s="371"/>
       <c r="D199" s="75" t="s">
         <v>100</v>
       </c>
@@ -21489,7 +21388,7 @@
       </c>
     </row>
     <row r="200" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B200" s="396"/>
+      <c r="B200" s="371"/>
       <c r="D200" s="75" t="s">
         <v>100</v>
       </c>
@@ -21507,7 +21406,7 @@
       </c>
     </row>
     <row r="201" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B201" s="396"/>
+      <c r="B201" s="371"/>
       <c r="D201" s="75" t="s">
         <v>100</v>
       </c>
@@ -21525,7 +21424,7 @@
       </c>
     </row>
     <row r="202" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B202" s="396"/>
+      <c r="B202" s="371"/>
       <c r="D202" s="81" t="s">
         <v>100</v>
       </c>
@@ -21543,7 +21442,7 @@
       </c>
     </row>
     <row r="203" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B203" s="396" t="s">
+      <c r="B203" s="371" t="s">
         <v>126</v>
       </c>
       <c r="D203" s="83" t="s">
@@ -21563,7 +21462,7 @@
       </c>
     </row>
     <row r="204" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B204" s="396"/>
+      <c r="B204" s="371"/>
       <c r="D204" s="75" t="s">
         <v>100</v>
       </c>
@@ -21581,7 +21480,7 @@
       </c>
     </row>
     <row r="205" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B205" s="396"/>
+      <c r="B205" s="371"/>
       <c r="D205" s="75" t="s">
         <v>100</v>
       </c>
@@ -21599,7 +21498,7 @@
       </c>
     </row>
     <row r="206" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B206" s="396"/>
+      <c r="B206" s="371"/>
       <c r="D206" s="75" t="s">
         <v>100</v>
       </c>
@@ -21617,7 +21516,7 @@
       </c>
     </row>
     <row r="207" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B207" s="396"/>
+      <c r="B207" s="371"/>
       <c r="D207" s="75" t="s">
         <v>100</v>
       </c>
@@ -21635,7 +21534,7 @@
       </c>
     </row>
     <row r="208" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B208" s="396"/>
+      <c r="B208" s="371"/>
       <c r="D208" s="75" t="s">
         <v>100</v>
       </c>
@@ -21653,7 +21552,7 @@
       </c>
     </row>
     <row r="209" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B209" s="396"/>
+      <c r="B209" s="371"/>
       <c r="D209" s="77" t="s">
         <v>100</v>
       </c>
@@ -21671,7 +21570,7 @@
       </c>
     </row>
     <row r="210" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B210" s="396" t="s">
+      <c r="B210" s="371" t="s">
         <v>127</v>
       </c>
       <c r="D210" s="73" t="s">
@@ -21691,7 +21590,7 @@
       </c>
     </row>
     <row r="211" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B211" s="396"/>
+      <c r="B211" s="371"/>
       <c r="D211" s="75" t="s">
         <v>100</v>
       </c>
@@ -21709,7 +21608,7 @@
       </c>
     </row>
     <row r="212" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B212" s="396"/>
+      <c r="B212" s="371"/>
       <c r="D212" s="75" t="s">
         <v>100</v>
       </c>
@@ -21727,7 +21626,7 @@
       </c>
     </row>
     <row r="213" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B213" s="396"/>
+      <c r="B213" s="371"/>
       <c r="D213" s="75" t="s">
         <v>100</v>
       </c>
@@ -21745,7 +21644,7 @@
       </c>
     </row>
     <row r="214" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B214" s="396"/>
+      <c r="B214" s="371"/>
       <c r="D214" s="75" t="s">
         <v>100</v>
       </c>
@@ -21763,7 +21662,7 @@
       </c>
     </row>
     <row r="215" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="B215" s="396"/>
+      <c r="B215" s="371"/>
       <c r="D215" s="75" t="s">
         <v>100</v>
       </c>
@@ -21781,7 +21680,7 @@
       </c>
     </row>
     <row r="216" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B216" s="396"/>
+      <c r="B216" s="371"/>
       <c r="D216" s="81" t="s">
         <v>100</v>
       </c>
@@ -21799,20 +21698,20 @@
       </c>
     </row>
     <row r="217" spans="2:20" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D217" s="371" t="s">
+      <c r="D217" s="388" t="s">
         <v>239</v>
       </c>
-      <c r="E217" s="371"/>
-      <c r="F217" s="371"/>
-      <c r="G217" s="371"/>
-      <c r="H217" s="371"/>
+      <c r="E217" s="388"/>
+      <c r="F217" s="388"/>
+      <c r="G217" s="388"/>
+      <c r="H217" s="388"/>
     </row>
     <row r="218" spans="2:20" x14ac:dyDescent="0.25">
-      <c r="D218" s="372"/>
-      <c r="E218" s="372"/>
-      <c r="F218" s="372"/>
-      <c r="G218" s="372"/>
-      <c r="H218" s="372"/>
+      <c r="D218" s="389"/>
+      <c r="E218" s="389"/>
+      <c r="F218" s="389"/>
+      <c r="G218" s="389"/>
+      <c r="H218" s="389"/>
     </row>
     <row r="220" spans="2:20" s="179" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D220" s="180" t="s">
@@ -21888,10 +21787,10 @@
       <c r="O222" s="98" t="s">
         <v>110</v>
       </c>
-      <c r="R222" s="393" t="s">
+      <c r="R222" s="375" t="s">
         <v>112</v>
       </c>
-      <c r="S222" s="394"/>
+      <c r="S222" s="376"/>
       <c r="T222" s="104">
         <f>I222*$K$223+I225*$L$223+I228*$M$223+I231*$N$223+I234*$O$223</f>
         <v>7997.2788862459374</v>
@@ -21931,10 +21830,10 @@
       <c r="O223" s="102">
         <v>0.02</v>
       </c>
-      <c r="R223" s="393" t="s">
+      <c r="R223" s="375" t="s">
         <v>113</v>
       </c>
-      <c r="S223" s="394"/>
+      <c r="S223" s="376"/>
       <c r="T223" s="104">
         <f>I223*$K$223+I226*$L$223+I229*$M$223+I232*$N$223+I235*$O$223</f>
         <v>8194.1635171830039</v>
@@ -21959,10 +21858,10 @@
       <c r="I224" s="202">
         <v>2792.7179487179487</v>
       </c>
-      <c r="R224" s="393" t="s">
+      <c r="R224" s="375" t="s">
         <v>114</v>
       </c>
-      <c r="S224" s="394"/>
+      <c r="S224" s="376"/>
       <c r="T224" s="104">
         <f>I224*$K$223+I227*$L$223+I230*$M$223+I233*$N$223+I236*$O$223</f>
         <v>8444.2043794558067</v>
@@ -22278,22 +22177,22 @@
       </c>
     </row>
     <row r="240" spans="4:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D240" s="371" t="s">
+      <c r="D240" s="388" t="s">
         <v>239</v>
       </c>
-      <c r="E240" s="371"/>
-      <c r="F240" s="371"/>
-      <c r="G240" s="371"/>
-      <c r="H240" s="371"/>
-      <c r="I240" s="371"/>
+      <c r="E240" s="388"/>
+      <c r="F240" s="388"/>
+      <c r="G240" s="388"/>
+      <c r="H240" s="388"/>
+      <c r="I240" s="388"/>
     </row>
     <row r="241" spans="4:9" x14ac:dyDescent="0.25">
-      <c r="D241" s="372"/>
-      <c r="E241" s="372"/>
-      <c r="F241" s="372"/>
-      <c r="G241" s="372"/>
-      <c r="H241" s="372"/>
-      <c r="I241" s="372"/>
+      <c r="D241" s="389"/>
+      <c r="E241" s="389"/>
+      <c r="F241" s="389"/>
+      <c r="G241" s="389"/>
+      <c r="H241" s="389"/>
+      <c r="I241" s="389"/>
     </row>
     <row r="297" spans="19:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="298" spans="19:22" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -22429,33 +22328,6 @@
     </row>
   </sheetData>
   <mergeCells count="43">
-    <mergeCell ref="B182:B188"/>
-    <mergeCell ref="B189:B195"/>
-    <mergeCell ref="B196:B202"/>
-    <mergeCell ref="B203:B209"/>
-    <mergeCell ref="B210:B216"/>
-    <mergeCell ref="AN41:AR42"/>
-    <mergeCell ref="AN40:AR40"/>
-    <mergeCell ref="P41:S42"/>
-    <mergeCell ref="V40:Z40"/>
-    <mergeCell ref="V41:Z42"/>
-    <mergeCell ref="AB41:AE42"/>
-    <mergeCell ref="AH40:AK40"/>
-    <mergeCell ref="AH41:AK42"/>
-    <mergeCell ref="R222:S222"/>
-    <mergeCell ref="R223:S223"/>
-    <mergeCell ref="R224:S224"/>
-    <mergeCell ref="R221:S221"/>
-    <mergeCell ref="K221:O221"/>
-    <mergeCell ref="L101:O103"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D41:G42"/>
-    <mergeCell ref="H94:J96"/>
-    <mergeCell ref="M81:P81"/>
-    <mergeCell ref="M82:P83"/>
-    <mergeCell ref="J40:M40"/>
-    <mergeCell ref="J41:M42"/>
     <mergeCell ref="D240:I241"/>
     <mergeCell ref="D217:H218"/>
     <mergeCell ref="D81:K82"/>
@@ -22472,6 +22344,33 @@
     <mergeCell ref="J190:K190"/>
     <mergeCell ref="H113:L113"/>
     <mergeCell ref="H154:J154"/>
+    <mergeCell ref="L101:O103"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D41:G42"/>
+    <mergeCell ref="H94:J96"/>
+    <mergeCell ref="M81:P81"/>
+    <mergeCell ref="M82:P83"/>
+    <mergeCell ref="J40:M40"/>
+    <mergeCell ref="J41:M42"/>
+    <mergeCell ref="R222:S222"/>
+    <mergeCell ref="R223:S223"/>
+    <mergeCell ref="R224:S224"/>
+    <mergeCell ref="R221:S221"/>
+    <mergeCell ref="K221:O221"/>
+    <mergeCell ref="AN41:AR42"/>
+    <mergeCell ref="AN40:AR40"/>
+    <mergeCell ref="P41:S42"/>
+    <mergeCell ref="V40:Z40"/>
+    <mergeCell ref="V41:Z42"/>
+    <mergeCell ref="AB41:AE42"/>
+    <mergeCell ref="AH40:AK40"/>
+    <mergeCell ref="AH41:AK42"/>
+    <mergeCell ref="B182:B188"/>
+    <mergeCell ref="B189:B195"/>
+    <mergeCell ref="B196:B202"/>
+    <mergeCell ref="B203:B209"/>
+    <mergeCell ref="B210:B216"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -22480,12 +22379,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:S40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="F122" sqref="F122"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23094,18 +22993,224 @@
     <mergeCell ref="O25:Q27"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf"/>
-    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf"/>
-    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf"/>
-    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf"/>
-    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf"/>
-    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf"/>
-    <hyperlink ref="B40" r:id="rId9"/>
+    <hyperlink ref="D11" r:id="rId1" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Balance e Indicadores 2017.pdf" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="D10" r:id="rId2" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance e Indicadores 2016.pdf" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
+    <hyperlink ref="D9" r:id="rId3" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1 Indicadores FINAL.pdf" xr:uid="{00000000-0004-0000-0400-000002000000}"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://www.minem.gob.pe/minem/archivos/BALANCE E INDICADORES 2014.pdf" xr:uid="{00000000-0004-0000-0400-000003000000}"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2013.pdf" xr:uid="{00000000-0004-0000-0400-000004000000}"/>
+    <hyperlink ref="D6" r:id="rId6" display="http://www.minem.gob.pe/minem/archivos/Capitulo 1  Balance y Principales Indicadores 2012.pdf" xr:uid="{00000000-0004-0000-0400-000005000000}"/>
+    <hyperlink ref="D5" r:id="rId7" display="http://www.minem.gob.pe/minem/archivos/Cap_1_  Balance y Principales Indicadores 2011.pdf" xr:uid="{00000000-0004-0000-0400-000006000000}"/>
+    <hyperlink ref="D4" r:id="rId8" display="http://www.minem.gob.pe/minem/archivos/Cap%C3%83%C2%ADtulo1_- Balance y Principales Indicadores El%C3%83%C2%A9ctricos 2010 (2).pdf" xr:uid="{00000000-0004-0000-0400-000007000000}"/>
+    <hyperlink ref="B40" r:id="rId9" xr:uid="{00000000-0004-0000-0400-000008000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
   <legacyDrawing r:id="rId11"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B1:I9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="11.28515625" customWidth="1"/>
+    <col min="7" max="7" width="14" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B1" s="320" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="320"/>
+      <c r="D1" s="320"/>
+      <c r="E1" s="320"/>
+      <c r="F1" s="321"/>
+      <c r="G1" s="321"/>
+      <c r="H1" s="321"/>
+      <c r="I1" s="320"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B2" s="322" t="s">
+        <v>280</v>
+      </c>
+      <c r="C2" s="320"/>
+      <c r="D2" s="320"/>
+      <c r="E2" s="320"/>
+      <c r="F2" s="321"/>
+      <c r="G2" s="321"/>
+      <c r="H2" s="321"/>
+      <c r="I2" s="320"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" s="320"/>
+      <c r="C3" s="320"/>
+      <c r="D3" s="320"/>
+      <c r="E3" s="320"/>
+      <c r="F3" s="321"/>
+      <c r="G3" s="321"/>
+      <c r="H3" s="321"/>
+      <c r="I3" s="320"/>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="323" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="324"/>
+      <c r="D4" s="325"/>
+      <c r="E4" s="324"/>
+      <c r="F4" s="326"/>
+      <c r="G4" s="327"/>
+      <c r="H4" s="327"/>
+      <c r="I4" s="370" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="B5" s="328" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="328" t="s">
+        <v>281</v>
+      </c>
+      <c r="D5" s="329" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="328" t="s">
+        <v>264</v>
+      </c>
+      <c r="F5" s="330" t="s">
+        <v>94</v>
+      </c>
+      <c r="G5" s="331"/>
+      <c r="H5" s="332" t="s">
+        <v>265</v>
+      </c>
+      <c r="I5" s="370"/>
+    </row>
+    <row r="6" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+      <c r="B6" s="333" t="s">
+        <v>266</v>
+      </c>
+      <c r="C6" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="E6" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="F6" s="72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="334"/>
+      <c r="H6" s="335"/>
+      <c r="I6" s="336" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" s="337">
+        <v>2013</v>
+      </c>
+      <c r="C7" s="337" t="s">
+        <v>252</v>
+      </c>
+      <c r="D7" s="337" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="337" t="s">
+        <v>78</v>
+      </c>
+      <c r="F7" s="338">
+        <v>10000</v>
+      </c>
+      <c r="G7" s="80">
+        <f>VLOOKUP(H7,Tabla_mes,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="H7" s="339" t="s">
+        <v>275</v>
+      </c>
+      <c r="I7" s="340">
+        <f>((Variables!F160-Variables!F155)/(1-Factores!$C$7)*1/1000*Factores!$Q$7*F7)*4/12</f>
+        <v>118.05362779648338</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="337">
+        <v>2014</v>
+      </c>
+      <c r="C8" s="337" t="s">
+        <v>253</v>
+      </c>
+      <c r="D8" s="337" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="337" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="338">
+        <v>10000</v>
+      </c>
+      <c r="G8" s="80">
+        <f>VLOOKUP(H8,Tabla_mes,2,FALSE)</f>
+        <v>8</v>
+      </c>
+      <c r="H8" s="339" t="s">
+        <v>272</v>
+      </c>
+      <c r="I8" s="340">
+        <f>((Variables!F168-Variables!F163)/(1-Factores!$C$8)*1/1000*Factores!$Q$8*F8)*G8/12</f>
+        <v>264.56707086614176</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" s="341"/>
+      <c r="D9" s="342"/>
+      <c r="E9" s="343"/>
+      <c r="F9" s="344"/>
+      <c r="G9" s="344"/>
+      <c r="H9" s="344"/>
+      <c r="I9" s="345">
+        <f>SUM(I7:I8)</f>
+        <v>382.62069866262516</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="I4:I5"/>
+  </mergeCells>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H7:H8" xr:uid="{00000000-0002-0000-0200-000000000000}">
+      <formula1>Lista_meses</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000001000000}">
+          <x14:formula1>
+            <xm:f>Variables!$F$12:$F$18</xm:f>
+          </x14:formula1>
+          <xm:sqref>D7:E8</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0200-000002000000}">
+          <x14:formula1>
+            <xm:f>Variables!$H$155:$J$155</xm:f>
+          </x14:formula1>
+          <xm:sqref>C7:C8</xm:sqref>
+        </x14:dataValidation>
+      </x14:dataValidations>
+    </ext>
+  </extLst>
+</worksheet>
 </file>